--- a/exports/L153-tok.xml-result-csv.xlsx
+++ b/exports/L153-tok.xml-result-csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackbowers/Box Sync/Language_Data/Mixtepec_Mixtec/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B36C0FA-A92F-314A-BFF4-27A7D61B7172}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55D49A-CD74-8A4B-8125-CC154FF5B51D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="17480" windowHeight="17040" xr2:uid="{E41ECC57-D3EC-634B-82C9-FA4EEA75CAA4}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="25680" windowHeight="17040" xr2:uid="{E41ECC57-D3EC-634B-82C9-FA4EEA75CAA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1491,9 +1491,6 @@
     <t>tavi</t>
   </si>
   <si>
-    <t>is this "tava" inflected? if so, what does it mean?</t>
-  </si>
-  <si>
     <t>ti</t>
   </si>
   <si>
@@ -1836,6 +1833,9 @@
       </rPr>
       <t xml:space="preserve"> ka , sara ma'in numa ña ntsikaa in cho'o ya'a ña ntsio nuu tuyuku ka .</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TAKE OUT </t>
   </si>
 </sst>
 </file>
@@ -1918,7 +1918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1958,6 +1958,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2279,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40224AC2-FC67-DA44-BA63-3ADED6EF3C43}">
   <dimension ref="A1:O240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="M142" sqref="M142"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2656,7 +2659,7 @@
     </row>
     <row r="20" spans="1:15" s="7" customFormat="1" ht="51">
       <c r="A20" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>21</v>
@@ -3478,7 +3481,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M66" t="s">
         <v>295</v>
@@ -3486,13 +3489,13 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E67" t="s">
+        <v>561</v>
+      </c>
+      <c r="H67" t="s">
         <v>562</v>
-      </c>
-      <c r="H67" t="s">
-        <v>563</v>
       </c>
       <c r="M67" t="s">
         <v>34</v>
@@ -3500,19 +3503,19 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E68" t="s">
+        <v>563</v>
+      </c>
+      <c r="F68" t="s">
+        <v>549</v>
+      </c>
+      <c r="H68" t="s">
         <v>564</v>
       </c>
-      <c r="F68" t="s">
-        <v>550</v>
-      </c>
-      <c r="H68" t="s">
-        <v>565</v>
-      </c>
       <c r="I68" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M68" t="s">
         <v>89</v>
@@ -3526,13 +3529,13 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E69" t="s">
+        <v>565</v>
+      </c>
+      <c r="H69" t="s">
         <v>566</v>
-      </c>
-      <c r="H69" t="s">
-        <v>567</v>
       </c>
       <c r="M69" t="s">
         <v>93</v>
@@ -3543,16 +3546,16 @@
     </row>
     <row r="70" spans="1:15" ht="34">
       <c r="A70" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E70" t="s">
         <v>568</v>
       </c>
-      <c r="E70" t="s">
+      <c r="H70" t="s">
         <v>569</v>
-      </c>
-      <c r="H70" t="s">
-        <v>570</v>
       </c>
       <c r="M70" t="s">
         <v>80</v>
@@ -3566,13 +3569,13 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E71" t="s">
+        <v>570</v>
+      </c>
+      <c r="H71" t="s">
         <v>571</v>
-      </c>
-      <c r="H71" t="s">
-        <v>572</v>
       </c>
       <c r="M71" t="s">
         <v>65</v>
@@ -3586,13 +3589,13 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E72" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H72" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M72" t="s">
         <v>71</v>
@@ -3600,20 +3603,20 @@
     </row>
     <row r="73" spans="1:15" s="14" customFormat="1">
       <c r="A73" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C73" s="15"/>
       <c r="E73" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="F73" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="F73" s="14" t="s">
+      <c r="H73" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="H73" s="14" t="s">
+      <c r="I73" s="14" t="s">
         <v>552</v>
-      </c>
-      <c r="I73" s="14" t="s">
-        <v>553</v>
       </c>
       <c r="M73" s="14" t="s">
         <v>89</v>
@@ -3740,16 +3743,16 @@
     </row>
     <row r="81" spans="1:15" s="5" customFormat="1" ht="17">
       <c r="A81" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="E81" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="H81" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>559</v>
       </c>
       <c r="M81" s="5" t="s">
         <v>34</v>
@@ -3757,10 +3760,10 @@
     </row>
     <row r="82" spans="1:15" s="5" customFormat="1" ht="51">
       <c r="A82" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>575</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>100</v>
@@ -3774,16 +3777,16 @@
     </row>
     <row r="83" spans="1:15" s="5" customFormat="1" ht="17">
       <c r="A83" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="E83" s="5" t="s">
+      <c r="H83" s="5" t="s">
         <v>577</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>578</v>
       </c>
       <c r="M83" s="5" t="s">
         <v>34</v>
@@ -4013,7 +4016,7 @@
         <v>54</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E99" t="s">
         <v>55</v>
@@ -4371,7 +4374,7 @@
         <v>401</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>402</v>
@@ -4388,7 +4391,7 @@
         <v>404</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>405</v>
@@ -4714,7 +4717,7 @@
         <v>314</v>
       </c>
       <c r="M136" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N136" s="5" t="s">
         <v>94</v>
@@ -4796,13 +4799,13 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="E141" t="s">
         <v>560</v>
       </c>
-      <c r="E141" t="s">
-        <v>561</v>
-      </c>
       <c r="H141" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M141" t="s">
         <v>37</v>
@@ -4810,16 +4813,16 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E142" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F142" t="s">
         <v>465</v>
       </c>
       <c r="H142" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I142" t="s">
         <v>467</v>
@@ -4836,13 +4839,13 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E143" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H143" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M143" t="s">
         <v>105</v>
@@ -5000,13 +5003,13 @@
         <v>316</v>
       </c>
       <c r="F153" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H153" t="s">
         <v>317</v>
       </c>
       <c r="I153" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M153" t="s">
         <v>20</v>
@@ -5094,13 +5097,13 @@
         <v>443</v>
       </c>
       <c r="G158" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H158" t="s">
         <v>444</v>
       </c>
       <c r="I158" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M158" t="s">
         <v>57</v>
@@ -5163,7 +5166,7 @@
         <v>68</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E161" t="s">
         <v>69</v>
@@ -5557,12 +5560,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="183" spans="1:15" s="5" customFormat="1" ht="34">
+    <row r="183" spans="1:15" s="5" customFormat="1" ht="17">
       <c r="A183" s="11" t="s">
         <v>477</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>478</v>
+        <v>585</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>100</v>
@@ -5570,19 +5573,19 @@
       <c r="H183" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M183" s="5" t="s">
+      <c r="M183" s="16" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E184" t="s">
         <v>479</v>
       </c>
-      <c r="E184" t="s">
+      <c r="H184" t="s">
         <v>480</v>
-      </c>
-      <c r="H184" t="s">
-        <v>481</v>
       </c>
       <c r="M184" t="s">
         <v>273</v>
@@ -5611,10 +5614,10 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="E186" t="s">
         <v>482</v>
-      </c>
-      <c r="E186" t="s">
-        <v>483</v>
       </c>
       <c r="H186" t="s">
         <v>374</v>
@@ -5685,16 +5688,16 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E190" t="s">
         <v>487</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>488</v>
       </c>
-      <c r="F190" t="s">
+      <c r="H190" t="s">
         <v>489</v>
-      </c>
-      <c r="H190" t="s">
-        <v>490</v>
       </c>
       <c r="M190" t="s">
         <v>295</v>
@@ -5702,17 +5705,17 @@
     </row>
     <row r="191" spans="1:15" s="5" customFormat="1">
       <c r="A191" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C191" s="6"/>
       <c r="E191" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F191" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="F191" s="5" t="s">
+      <c r="H191" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="H191" s="5" t="s">
-        <v>490</v>
       </c>
       <c r="M191" s="5" t="s">
         <v>295</v>
@@ -5720,14 +5723,14 @@
     </row>
     <row r="192" spans="1:15" s="5" customFormat="1">
       <c r="A192" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C192" s="6"/>
       <c r="E192" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H192" s="5" t="s">
         <v>485</v>
-      </c>
-      <c r="H192" s="5" t="s">
-        <v>486</v>
       </c>
       <c r="M192" s="5" t="s">
         <v>176</v>
@@ -5735,13 +5738,13 @@
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="E193" t="s">
         <v>484</v>
       </c>
-      <c r="E193" t="s">
+      <c r="H193" t="s">
         <v>485</v>
-      </c>
-      <c r="H193" t="s">
-        <v>486</v>
       </c>
       <c r="M193" t="s">
         <v>176</v>
@@ -5749,7 +5752,7 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -5769,16 +5772,16 @@
     </row>
     <row r="195" spans="1:15" ht="17">
       <c r="A195" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="E195" t="s">
         <v>496</v>
       </c>
-      <c r="E195" t="s">
+      <c r="H195" t="s">
         <v>497</v>
-      </c>
-      <c r="H195" t="s">
-        <v>498</v>
       </c>
       <c r="M195" t="s">
         <v>53</v>
@@ -5786,13 +5789,13 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E196" t="s">
+        <v>498</v>
+      </c>
+      <c r="H196" t="s">
         <v>499</v>
-      </c>
-      <c r="H196" t="s">
-        <v>500</v>
       </c>
       <c r="M196" t="s">
         <v>198</v>
@@ -5800,13 +5803,13 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E197" t="s">
         <v>501</v>
       </c>
-      <c r="E197" t="s">
+      <c r="H197" t="s">
         <v>502</v>
-      </c>
-      <c r="H197" t="s">
-        <v>503</v>
       </c>
       <c r="M197" t="s">
         <v>80</v>
@@ -5820,13 +5823,13 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="E198" t="s">
         <v>504</v>
       </c>
-      <c r="E198" t="s">
+      <c r="H198" t="s">
         <v>505</v>
-      </c>
-      <c r="H198" t="s">
-        <v>506</v>
       </c>
       <c r="M198" t="s">
         <v>368</v>
@@ -5920,13 +5923,13 @@
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E203" t="s">
         <v>509</v>
       </c>
-      <c r="E203" t="s">
+      <c r="H203" t="s">
         <v>510</v>
-      </c>
-      <c r="H203" t="s">
-        <v>511</v>
       </c>
       <c r="M203" t="s">
         <v>34</v>
@@ -5934,16 +5937,16 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E204" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F204" t="s">
         <v>436</v>
       </c>
       <c r="H204" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I204" t="s">
         <v>438</v>
@@ -5957,13 +5960,13 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E205" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H205" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M205" t="s">
         <v>73</v>
@@ -5977,10 +5980,10 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E206" t="s">
         <v>514</v>
-      </c>
-      <c r="E206" t="s">
-        <v>515</v>
       </c>
       <c r="H206" t="s">
         <v>380</v>
@@ -6011,13 +6014,13 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="E208" t="s">
         <v>491</v>
       </c>
-      <c r="E208" t="s">
+      <c r="H208" t="s">
         <v>492</v>
-      </c>
-      <c r="H208" t="s">
-        <v>493</v>
       </c>
       <c r="M208" t="s">
         <v>295</v>
@@ -6025,13 +6028,13 @@
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="E209" t="s">
         <v>516</v>
       </c>
-      <c r="E209" t="s">
+      <c r="H209" t="s">
         <v>517</v>
-      </c>
-      <c r="H209" t="s">
-        <v>518</v>
       </c>
       <c r="M209" t="s">
         <v>24</v>
@@ -6045,13 +6048,13 @@
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="E210" t="s">
         <v>519</v>
       </c>
-      <c r="E210" t="s">
+      <c r="H210" t="s">
         <v>520</v>
-      </c>
-      <c r="H210" t="s">
-        <v>521</v>
       </c>
       <c r="M210" t="s">
         <v>20</v>
@@ -6059,13 +6062,13 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E211" t="s">
+        <v>521</v>
+      </c>
+      <c r="H211" t="s">
         <v>522</v>
-      </c>
-      <c r="H211" t="s">
-        <v>523</v>
       </c>
       <c r="M211" t="s">
         <v>105</v>
@@ -6073,13 +6076,13 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E212" t="s">
         <v>524</v>
       </c>
-      <c r="E212" t="s">
+      <c r="H212" t="s">
         <v>525</v>
-      </c>
-      <c r="H212" t="s">
-        <v>526</v>
       </c>
       <c r="M212" t="s">
         <v>89</v>
@@ -6164,13 +6167,13 @@
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="E217" t="s">
         <v>527</v>
       </c>
-      <c r="E217" t="s">
+      <c r="H217" t="s">
         <v>528</v>
-      </c>
-      <c r="H217" t="s">
-        <v>529</v>
       </c>
       <c r="M217" t="s">
         <v>368</v>
@@ -6184,13 +6187,13 @@
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="E218" t="s">
         <v>530</v>
       </c>
-      <c r="E218" t="s">
+      <c r="H218" t="s">
         <v>531</v>
-      </c>
-      <c r="H218" t="s">
-        <v>532</v>
       </c>
       <c r="M218" t="s">
         <v>57</v>
@@ -6204,13 +6207,13 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E219" t="s">
         <v>533</v>
       </c>
-      <c r="E219" t="s">
+      <c r="H219" t="s">
         <v>534</v>
-      </c>
-      <c r="H219" t="s">
-        <v>535</v>
       </c>
       <c r="M219" t="s">
         <v>120</v>
@@ -6224,14 +6227,14 @@
     </row>
     <row r="220" spans="1:15" s="14" customFormat="1">
       <c r="A220" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C220" s="15"/>
       <c r="E220" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="H220" s="14" t="s">
         <v>537</v>
-      </c>
-      <c r="H220" s="14" t="s">
-        <v>538</v>
       </c>
       <c r="M220" s="14" t="s">
         <v>176</v>
@@ -6239,13 +6242,13 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="E221" t="s">
         <v>539</v>
       </c>
-      <c r="E221" t="s">
+      <c r="H221" t="s">
         <v>540</v>
-      </c>
-      <c r="H221" t="s">
-        <v>541</v>
       </c>
       <c r="M221" t="s">
         <v>105</v>
@@ -6273,11 +6276,11 @@
     </row>
     <row r="223" spans="1:15" s="5" customFormat="1">
       <c r="A223" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C223" s="6"/>
       <c r="E223" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M223" s="5" t="s">
         <v>105</v>
@@ -6285,13 +6288,13 @@
     </row>
     <row r="224" spans="1:15" s="5" customFormat="1" ht="17">
       <c r="A224" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C224" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="E224" s="5" t="s">
         <v>544</v>
-      </c>
-      <c r="E224" s="5" t="s">
-        <v>545</v>
       </c>
       <c r="M224" s="5" t="s">
         <v>120</v>
@@ -6305,13 +6308,13 @@
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="E225" t="s">
         <v>546</v>
       </c>
-      <c r="E225" t="s">
+      <c r="H225" t="s">
         <v>547</v>
-      </c>
-      <c r="H225" t="s">
-        <v>548</v>
       </c>
       <c r="M225" t="s">
         <v>37</v>
@@ -6345,7 +6348,7 @@
         <v>27</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E227" s="14" t="s">
         <v>28</v>
@@ -6379,13 +6382,13 @@
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E229" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H229" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M229" t="s">
         <v>93</v>
